--- a/Data/Metadata_Melanoma_Study.xlsx
+++ b/Data/Metadata_Melanoma_Study.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MBender\Arbeit\Github\MelanomaStudy\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aktuell\Eigene Dateien\Eigene Dateien_Marc\R\Github\MelanomaStudy\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBC601-1F98-466B-81C0-981F12F724E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B5ECA6A9-D323-478C-8F58-31E0F5A49833}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -201,9 +200,6 @@
     <t>07-08/14 3 Zyklen IPI, 10/14 3x Remicade, 01/15-lfd Zyklen Keytruda</t>
   </si>
   <si>
-    <t>keine Therapie</t>
-  </si>
-  <si>
     <t>Ipilimumab</t>
   </si>
   <si>
@@ -655,12 +651,27 @@
   </si>
   <si>
     <t>organsInvolved</t>
+  </si>
+  <si>
+    <t>therapy_type_at_blood_draw</t>
+  </si>
+  <si>
+    <t>ICI</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -693,7 +704,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1007,16 +1018,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA843FC-97DB-4240-8D44-06DAFE8E437E}">
-  <dimension ref="A1:X104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="F73" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="6" max="6" width="168.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,92 +1051,77 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1134,56 +1137,59 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>69</v>
       </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4">
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>4.3</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>159</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.04</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>31</v>
       </c>
-      <c r="X4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1199,56 +1205,59 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5">
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>3.3</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>18.899999999999999</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>231</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.09</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>36</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>31</v>
       </c>
-      <c r="X5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1264,53 +1273,56 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>73</v>
       </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6">
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>3.1</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.8</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>290</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>30</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>31</v>
       </c>
-      <c r="X6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1326,56 +1338,59 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>82</v>
       </c>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7">
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>5.5</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>174</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.11</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>30</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>44</v>
       </c>
-      <c r="X7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1391,56 +1406,59 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>63</v>
       </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8">
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8">
         <v>4</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>2.7</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>239</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.38</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>30</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>31</v>
       </c>
-      <c r="X8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1456,50 +1474,53 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>49</v>
       </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9">
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>4.7</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>233</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.06</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>36</v>
       </c>
-      <c r="X9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1515,53 +1536,56 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>44</v>
       </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10">
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1.6</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.3</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>162</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>36</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>44</v>
       </c>
-      <c r="X10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1577,121 +1601,124 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>63</v>
       </c>
-      <c r="N11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11">
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>179</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.05</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>30</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>53</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>31</v>
       </c>
-      <c r="X11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
       <c r="D12" s="2">
         <v>42458</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>56</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>66</v>
       </c>
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <v>0.1</v>
+      <c r="Q12" t="s">
+        <v>25</v>
       </c>
       <c r="R12">
         <v>3</v>
       </c>
       <c r="S12">
+        <v>0.1</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
         <v>256</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>30</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>31</v>
       </c>
-      <c r="X12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1707,53 +1734,56 @@
       <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
         <v>33</v>
       </c>
-      <c r="H13">
+      <c r="I13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
       <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
         <v>50</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>29</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>33</v>
       </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13">
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13">
         <v>0.5</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>2.1</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>238</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.08</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>36</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>31</v>
       </c>
-      <c r="X13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1769,121 +1799,124 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="I14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>23</v>
       </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
         <v>28</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>29</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>80</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>6.5</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>6.5</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>252</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>30</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>31</v>
       </c>
-      <c r="X14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="2">
         <v>42461</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>29</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>69</v>
       </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15">
+      <c r="P15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>5</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>308</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.23</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>30</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>31</v>
       </c>
-      <c r="X15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1900,58 +1933,61 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
       <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
         <v>43</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>44</v>
       </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16">
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>3.5</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>204</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>36</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Y16" t="s">
         <v>31</v>
       </c>
-      <c r="X16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1967,133 +2003,133 @@
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="H17">
+      <c r="I17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
       <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
         <v>28</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>29</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>75</v>
       </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17">
+      <c r="Q17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>1.2</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>2.4</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>210</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.77</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>36</v>
       </c>
-      <c r="W17" t="s">
+      <c r="Y17" t="s">
         <v>31</v>
       </c>
-      <c r="X17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="2">
         <v>42465</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>69</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T18">
+        <v>1.6</v>
+      </c>
+      <c r="U18">
+        <v>345</v>
+      </c>
+      <c r="V18">
+        <v>0.06</v>
+      </c>
+      <c r="W18" t="s">
         <v>70</v>
       </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18">
-        <v>62</v>
-      </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R18">
-        <v>1.6</v>
-      </c>
-      <c r="S18">
-        <v>345</v>
-      </c>
-      <c r="T18">
-        <v>0.06</v>
-      </c>
-      <c r="U18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="Y18" t="s">
         <v>44</v>
       </c>
-      <c r="X18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="2">
         <v>42465</v>
       </c>
@@ -2101,58 +2137,61 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s">
         <v>75</v>
       </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19">
-        <v>52</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="Q19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <v>2.9</v>
+      </c>
+      <c r="T19">
+        <v>0.8</v>
+      </c>
+      <c r="U19">
+        <v>166</v>
+      </c>
+      <c r="V19">
+        <v>0.06</v>
+      </c>
+      <c r="W19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s">
         <v>76</v>
       </c>
-      <c r="O19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19">
-        <v>2.9</v>
-      </c>
-      <c r="R19">
-        <v>0.8</v>
-      </c>
-      <c r="S19">
-        <v>166</v>
-      </c>
-      <c r="T19">
-        <v>0.06</v>
-      </c>
-      <c r="U19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" t="s">
-        <v>77</v>
-      </c>
-      <c r="X19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2168,59 +2207,62 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>79</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>34</v>
       </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
         <v>28</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>43</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>74</v>
       </c>
-      <c r="N20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20">
+      <c r="P20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>1.2</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>276</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.11</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>30</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Y20" t="s">
         <v>31</v>
       </c>
-      <c r="X20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2236,127 +2278,127 @@
       <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="H21">
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
       <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
         <v>50</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>43</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>76</v>
       </c>
-      <c r="N21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21">
+      <c r="P21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21">
         <v>2</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>2.4</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>0.6</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>185</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.04</v>
       </c>
-      <c r="U21" t="s">
+      <c r="W21" t="s">
         <v>36</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Y21" t="s">
         <v>31</v>
       </c>
-      <c r="X21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="2">
         <v>42467</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>83</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
         <v>50</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>29</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>59</v>
       </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>0.4</v>
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
       <c r="S22">
+        <v>0.4</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
         <v>190</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.19</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
         <v>36</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Y22" t="s">
         <v>44</v>
       </c>
-      <c r="X22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2372,53 +2414,56 @@
       <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
         <v>26</v>
       </c>
-      <c r="H23">
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>23</v>
       </c>
-      <c r="J23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" t="s">
         <v>35</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>43</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>76</v>
       </c>
-      <c r="N23" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23">
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>0.3</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>0.2</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>141</v>
       </c>
-      <c r="U23" t="s">
+      <c r="W23" t="s">
         <v>30</v>
       </c>
-      <c r="W23" t="s">
+      <c r="Y23" t="s">
         <v>31</v>
       </c>
-      <c r="X23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2434,59 +2479,62 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
         <v>26</v>
       </c>
-      <c r="H24">
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T24">
+        <v>0.6</v>
+      </c>
+      <c r="U24">
+        <v>228</v>
+      </c>
+      <c r="V24">
+        <v>0.04</v>
+      </c>
+      <c r="W24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" t="s">
         <v>88</v>
       </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24">
-        <v>72</v>
-      </c>
-      <c r="N24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="R24">
-        <v>0.6</v>
-      </c>
-      <c r="S24">
-        <v>228</v>
-      </c>
-      <c r="T24">
-        <v>0.04</v>
-      </c>
-      <c r="U24" t="s">
-        <v>30</v>
-      </c>
-      <c r="W24" t="s">
-        <v>89</v>
-      </c>
-      <c r="X24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2502,59 +2550,62 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
         <v>26</v>
       </c>
-      <c r="H25">
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25">
         <v>2</v>
       </c>
-      <c r="I25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
       <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
         <v>50</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>29</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>87</v>
       </c>
-      <c r="N25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25">
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25">
         <v>3</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>3</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>1.6</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>207</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.09</v>
       </c>
-      <c r="U25" t="s">
+      <c r="W25" t="s">
         <v>36</v>
       </c>
-      <c r="W25" t="s">
+      <c r="Y25" t="s">
         <v>31</v>
       </c>
-      <c r="X25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2570,56 +2621,59 @@
       <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26">
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>23</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>23</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>43</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>69</v>
       </c>
-      <c r="N26" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26">
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26">
         <v>3</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>1.5</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>2</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>190</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>0.15</v>
       </c>
-      <c r="U26" t="s">
+      <c r="W26" t="s">
         <v>36</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Y26" t="s">
         <v>31</v>
       </c>
-      <c r="X26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2635,59 +2689,62 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" t="s">
         <v>26</v>
       </c>
-      <c r="H27">
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
       <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
         <v>28</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>29</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>77</v>
       </c>
-      <c r="N27" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27">
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27">
         <v>3</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>0.3</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>71.3</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>478</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U27" t="s">
+      <c r="W27" t="s">
         <v>30</v>
       </c>
-      <c r="W27" t="s">
+      <c r="Y27" t="s">
         <v>31</v>
       </c>
-      <c r="X27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2703,59 +2760,62 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
         <v>26</v>
       </c>
-      <c r="H28">
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
       <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
         <v>28</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>43</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>45</v>
       </c>
-      <c r="N28" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28">
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28">
         <v>3</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>1.8</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>11.6</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>218</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>0.02</v>
       </c>
-      <c r="U28" t="s">
+      <c r="W28" t="s">
         <v>36</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Y28" t="s">
         <v>31</v>
       </c>
-      <c r="X28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2772,61 +2832,64 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
       <c r="K29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
         <v>39</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>29</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>84</v>
       </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29">
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29">
         <v>1</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>1.3</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>285</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>393</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>2.42</v>
       </c>
-      <c r="U29" t="s">
+      <c r="W29" t="s">
         <v>30</v>
       </c>
-      <c r="W29" t="s">
+      <c r="Y29" t="s">
         <v>44</v>
       </c>
-      <c r="X29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2842,59 +2905,62 @@
       <c r="E30" t="s">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
         <v>26</v>
       </c>
-      <c r="H30">
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" t="s">
-        <v>27</v>
-      </c>
       <c r="K30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
         <v>28</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>29</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>76</v>
       </c>
-      <c r="N30" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30">
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30">
         <v>3</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>3</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>6.6</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>233</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>0.06</v>
       </c>
-      <c r="U30" t="s">
+      <c r="W30" t="s">
         <v>30</v>
       </c>
-      <c r="W30" t="s">
+      <c r="Y30" t="s">
         <v>44</v>
       </c>
-      <c r="X30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2910,59 +2976,62 @@
       <c r="E31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
         <v>33</v>
       </c>
-      <c r="H31">
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J31" t="s">
-        <v>27</v>
-      </c>
       <c r="K31" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
         <v>50</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>43</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>60</v>
       </c>
-      <c r="N31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31">
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31">
         <v>3</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>0.2</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>3.6</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>233</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>0.1</v>
       </c>
-      <c r="U31" t="s">
+      <c r="W31" t="s">
         <v>36</v>
       </c>
-      <c r="W31" t="s">
+      <c r="Y31" t="s">
         <v>31</v>
       </c>
-      <c r="X31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2979,55 +3048,55 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32">
         <v>73</v>
       </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32">
-        <v>73</v>
-      </c>
-      <c r="P32">
+      <c r="R32">
         <v>2</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>6.5</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>213</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>0.08</v>
       </c>
-      <c r="U32" t="s">
+      <c r="W32" t="s">
         <v>30</v>
       </c>
-      <c r="W32" t="s">
+      <c r="Y32" t="s">
         <v>31</v>
       </c>
-      <c r="X32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3043,50 +3112,50 @@
       <c r="E33" t="s">
         <v>24</v>
       </c>
-      <c r="F33" t="s">
-        <v>83</v>
-      </c>
       <c r="G33" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
       <c r="K33" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
         <v>35</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>43</v>
       </c>
-      <c r="N33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q33">
+      <c r="P33" t="s">
+        <v>75</v>
+      </c>
+      <c r="S33">
         <v>0.6</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>13.1</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>185</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>0.09</v>
       </c>
-      <c r="U33" t="s">
+      <c r="W33" t="s">
         <v>36</v>
       </c>
-      <c r="W33" t="s">
+      <c r="Y33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3102,59 +3171,62 @@
       <c r="E34" t="s">
         <v>25</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" t="s">
         <v>26</v>
       </c>
-      <c r="H34">
+      <c r="I34" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34">
         <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" t="s">
-        <v>27</v>
       </c>
       <c r="K34" t="s">
         <v>23</v>
       </c>
       <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" t="s">
         <v>29</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>74</v>
       </c>
-      <c r="N34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34">
+      <c r="P34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34">
         <v>1</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>0.8</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>3.5</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>188</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>0.03</v>
       </c>
-      <c r="U34" t="s">
+      <c r="W34" t="s">
         <v>30</v>
       </c>
-      <c r="W34" t="s">
+      <c r="Y34" t="s">
         <v>31</v>
       </c>
-      <c r="X34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3170,59 +3242,62 @@
       <c r="E35" t="s">
         <v>25</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" t="s">
         <v>41</v>
       </c>
-      <c r="H35">
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
       <c r="K35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
         <v>50</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>43</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>78</v>
       </c>
-      <c r="N35" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35">
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35">
         <v>3</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>1.6</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>153</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>0.09</v>
       </c>
-      <c r="U35" t="s">
-        <v>71</v>
-      </c>
       <c r="W35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y35" t="s">
         <v>31</v>
       </c>
-      <c r="X35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3238,59 +3313,62 @@
       <c r="E36" t="s">
         <v>24</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>110</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" t="s">
+        <v>207</v>
+      </c>
+      <c r="J36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>34</v>
       </c>
-      <c r="J36" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
         <v>50</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>29</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>38</v>
       </c>
-      <c r="N36" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36">
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36">
         <v>3</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>6.8</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>4</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>168</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>0.05</v>
       </c>
-      <c r="U36" t="s">
+      <c r="W36" t="s">
         <v>30</v>
       </c>
-      <c r="W36" t="s">
+      <c r="Y36" t="s">
         <v>44</v>
       </c>
-      <c r="X36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3306,59 +3384,62 @@
       <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
         <v>26</v>
       </c>
-      <c r="H37">
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37">
         <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" t="s">
-        <v>23</v>
       </c>
       <c r="K37" t="s">
         <v>23</v>
       </c>
       <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
         <v>29</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>92</v>
       </c>
-      <c r="N37" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37">
+      <c r="P37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>2</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>7.8</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>185</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U37" t="s">
+      <c r="W37" t="s">
         <v>30</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Y37" t="s">
         <v>31</v>
       </c>
-      <c r="X37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3374,56 +3455,59 @@
       <c r="E38" t="s">
         <v>24</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" t="s">
+        <v>209</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>113</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
         <v>35</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>29</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>45</v>
       </c>
-      <c r="N38" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38">
+      <c r="P38" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38">
         <v>1</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>1.7</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>5.5</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <v>178</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>0.09</v>
       </c>
-      <c r="U38" t="s">
+      <c r="W38" t="s">
         <v>30</v>
       </c>
-      <c r="W38" t="s">
+      <c r="Y38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3439,59 +3523,62 @@
       <c r="E39" t="s">
         <v>25</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" t="s">
         <v>41</v>
       </c>
-      <c r="H39">
+      <c r="I39" t="s">
+        <v>207</v>
+      </c>
+      <c r="J39">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
       <c r="K39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
         <v>50</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>29</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>77</v>
       </c>
-      <c r="N39" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39">
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39">
         <v>2</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>5</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>0.4</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>160</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U39" t="s">
+      <c r="W39" t="s">
         <v>36</v>
       </c>
-      <c r="W39" t="s">
+      <c r="Y39" t="s">
         <v>31</v>
       </c>
-      <c r="X39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3507,124 +3594,124 @@
       <c r="E40" t="s">
         <v>24</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>117</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
         <v>39</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>29</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>36</v>
       </c>
-      <c r="N40" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" t="s">
-        <v>25</v>
-      </c>
-      <c r="P40">
+      <c r="P40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40">
         <v>3</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>3.3</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>203</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>0.04</v>
       </c>
-      <c r="U40" t="s">
+      <c r="W40" t="s">
         <v>36</v>
       </c>
-      <c r="W40" t="s">
+      <c r="Y40" t="s">
         <v>31</v>
       </c>
-      <c r="X40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
       <c r="D41" s="2">
         <v>42488</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
       </c>
-      <c r="G41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41">
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
-      </c>
       <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s">
         <v>35</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>43</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>50</v>
       </c>
-      <c r="N41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" t="s">
-        <v>24</v>
-      </c>
-      <c r="P41">
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41">
         <v>1</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>2</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <v>1.2</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <v>136</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <v>0.1</v>
       </c>
-      <c r="U41" t="s">
+      <c r="W41" t="s">
         <v>36</v>
       </c>
-      <c r="W41" t="s">
+      <c r="Y41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3640,115 +3727,115 @@
       <c r="E42" t="s">
         <v>25</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
         <v>26</v>
       </c>
-      <c r="H42">
+      <c r="I42" t="s">
+        <v>207</v>
+      </c>
+      <c r="J42">
         <v>2</v>
       </c>
-      <c r="I42" t="s">
-        <v>120</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
       <c r="K42" t="s">
+        <v>119</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s">
         <v>28</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>29</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>52</v>
       </c>
-      <c r="N42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" t="s">
-        <v>25</v>
-      </c>
-      <c r="P42">
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42">
         <v>2</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>10.199999999999999</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <v>399</v>
       </c>
-      <c r="U42" t="s">
+      <c r="W42" t="s">
         <v>36</v>
       </c>
-      <c r="W42" t="s">
+      <c r="Y42" t="s">
         <v>31</v>
       </c>
-      <c r="X42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="C43" t="s">
-        <v>55</v>
-      </c>
       <c r="D43" s="2">
         <v>42493</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
-      <c r="G43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43">
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>23</v>
       </c>
-      <c r="J43" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" t="s">
         <v>50</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>43</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>76</v>
       </c>
-      <c r="O43" t="s">
-        <v>24</v>
-      </c>
-      <c r="P43">
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43">
         <v>3</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>1.4</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>1.3</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <v>178</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W43" t="s">
+      <c r="Y43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3764,59 +3851,62 @@
       <c r="E44" t="s">
         <v>25</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" t="s">
         <v>26</v>
       </c>
-      <c r="H44">
+      <c r="I44" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" t="s">
-        <v>86</v>
-      </c>
       <c r="K44" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="L44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" t="s">
         <v>43</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>74</v>
       </c>
-      <c r="N44" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44">
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>3.5</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <v>0.6</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <v>177</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <v>0.1</v>
       </c>
-      <c r="U44" t="s">
+      <c r="W44" t="s">
         <v>30</v>
       </c>
-      <c r="W44" t="s">
+      <c r="Y44" t="s">
         <v>31</v>
       </c>
-      <c r="X44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3832,53 +3922,53 @@
       <c r="E45" t="s">
         <v>24</v>
       </c>
-      <c r="G45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45">
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>23</v>
       </c>
-      <c r="J45" t="s">
-        <v>86</v>
-      </c>
-      <c r="K45" t="s">
-        <v>124</v>
-      </c>
       <c r="L45" t="s">
+        <v>85</v>
+      </c>
+      <c r="M45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" t="s">
         <v>43</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>76</v>
       </c>
-      <c r="N45" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45">
+      <c r="P45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>25</v>
+      </c>
+      <c r="R45">
         <v>0</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <v>2.9</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <v>0.6</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <v>182</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>0.05</v>
       </c>
-      <c r="U45" t="s">
+      <c r="W45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3894,56 +3984,59 @@
       <c r="E46" t="s">
         <v>25</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" t="s">
         <v>33</v>
       </c>
-      <c r="H46">
+      <c r="I46" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>125</v>
-      </c>
-      <c r="J46" t="s">
-        <v>27</v>
-      </c>
       <c r="K46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
         <v>28</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>29</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>61</v>
       </c>
-      <c r="N46" t="s">
-        <v>25</v>
-      </c>
-      <c r="P46">
+      <c r="P46" t="s">
+        <v>25</v>
+      </c>
+      <c r="R46">
         <v>2</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>0.8</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>6.3</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <v>213</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>0.05</v>
       </c>
-      <c r="U46" t="s">
+      <c r="W46" t="s">
         <v>36</v>
       </c>
-      <c r="W46" t="s">
+      <c r="Y46" t="s">
         <v>31</v>
       </c>
-      <c r="X46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3959,59 +4052,62 @@
       <c r="E47" t="s">
         <v>24</v>
       </c>
-      <c r="G47" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47">
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" t="s">
+        <v>207</v>
+      </c>
+      <c r="J47">
         <v>2</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>23</v>
       </c>
-      <c r="J47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
         <v>50</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>29</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>36</v>
       </c>
-      <c r="N47" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47">
+      <c r="P47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>25</v>
+      </c>
+      <c r="R47">
         <v>1</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <v>2.7</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <v>1.3</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <v>188</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <v>0.78</v>
       </c>
-      <c r="U47" t="s">
+      <c r="W47" t="s">
         <v>30</v>
       </c>
-      <c r="W47" t="s">
+      <c r="Y47" t="s">
         <v>31</v>
       </c>
-      <c r="X47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4027,59 +4123,62 @@
       <c r="E48" t="s">
         <v>25</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" t="s">
         <v>26</v>
       </c>
-      <c r="H48">
+      <c r="I48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>128</v>
-      </c>
-      <c r="J48" t="s">
-        <v>27</v>
-      </c>
       <c r="K48" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
         <v>28</v>
       </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>29</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>42</v>
       </c>
-      <c r="N48" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" t="s">
-        <v>24</v>
-      </c>
-      <c r="P48">
+      <c r="P48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48">
         <v>2</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <v>5.2</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <v>10.4</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <v>157</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>0.03</v>
       </c>
-      <c r="U48" t="s">
+      <c r="W48" t="s">
         <v>36</v>
       </c>
-      <c r="W48" t="s">
+      <c r="Y48" t="s">
         <v>31</v>
       </c>
-      <c r="X48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4095,41 +4194,44 @@
       <c r="E49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49">
+      <c r="H49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>23</v>
       </c>
-      <c r="J49" t="s">
-        <v>27</v>
-      </c>
       <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" t="s">
         <v>29</v>
       </c>
-      <c r="Q49">
+      <c r="S49">
         <v>1</v>
       </c>
-      <c r="R49">
+      <c r="T49">
         <v>1.2</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <v>195</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <v>0.03</v>
       </c>
-      <c r="U49" t="s">
+      <c r="W49" t="s">
         <v>36</v>
       </c>
-      <c r="W49" t="s">
+      <c r="Y49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4145,59 +4247,62 @@
       <c r="E50" t="s">
         <v>25</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" t="s">
         <v>26</v>
       </c>
-      <c r="H50">
+      <c r="I50" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50">
         <v>1</v>
       </c>
-      <c r="I50" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" t="s">
-        <v>27</v>
-      </c>
       <c r="K50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
         <v>35</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>29</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>50</v>
       </c>
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50">
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50">
         <v>2</v>
       </c>
-      <c r="Q50">
+      <c r="S50">
         <v>10</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <v>1</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <v>166</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <v>0.04</v>
       </c>
-      <c r="U50" t="s">
+      <c r="W50" t="s">
         <v>36</v>
       </c>
-      <c r="W50" t="s">
+      <c r="Y50" t="s">
         <v>31</v>
       </c>
-      <c r="X50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4213,59 +4318,62 @@
       <c r="E51" t="s">
         <v>25</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
         <v>26</v>
       </c>
-      <c r="H51">
+      <c r="I51" t="s">
+        <v>207</v>
+      </c>
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="I51" t="s">
-        <v>133</v>
-      </c>
-      <c r="J51" t="s">
-        <v>27</v>
-      </c>
       <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" t="s">
         <v>28</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" t="s">
         <v>29</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>85</v>
       </c>
-      <c r="N51" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51">
+      <c r="P51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51">
         <v>3</v>
       </c>
-      <c r="Q51">
+      <c r="S51">
         <v>1.5</v>
       </c>
-      <c r="R51">
+      <c r="T51">
         <v>0.6</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <v>192</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U51" t="s">
+      <c r="W51" t="s">
         <v>30</v>
       </c>
-      <c r="W51" t="s">
+      <c r="Y51" t="s">
         <v>31</v>
       </c>
-      <c r="X51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4281,56 +4389,59 @@
       <c r="E52" t="s">
         <v>25</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" t="s">
         <v>33</v>
       </c>
-      <c r="H52">
+      <c r="I52" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" t="s">
-        <v>27</v>
-      </c>
       <c r="K52" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s">
         <v>50</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>43</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>55</v>
       </c>
-      <c r="N52" t="s">
-        <v>24</v>
-      </c>
-      <c r="P52">
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52">
         <v>3</v>
       </c>
-      <c r="Q52">
+      <c r="S52">
         <v>2.4</v>
       </c>
-      <c r="R52">
+      <c r="T52">
         <v>25.2</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <v>290</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <v>0.15</v>
       </c>
-      <c r="U52" t="s">
+      <c r="W52" t="s">
         <v>36</v>
       </c>
-      <c r="W52" t="s">
+      <c r="Y52" t="s">
         <v>31</v>
       </c>
-      <c r="X52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4346,59 +4457,62 @@
       <c r="E53" t="s">
         <v>25</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" t="s">
         <v>26</v>
       </c>
-      <c r="H53">
+      <c r="I53" t="s">
+        <v>207</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" t="s">
-        <v>27</v>
-      </c>
       <c r="K53" t="s">
+        <v>101</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
         <v>28</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>29</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>72</v>
       </c>
-      <c r="N53" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" t="s">
-        <v>24</v>
-      </c>
-      <c r="P53">
-        <v>2</v>
-      </c>
-      <c r="Q53">
-        <v>0.6</v>
+      <c r="P53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>24</v>
       </c>
       <c r="R53">
         <v>2</v>
       </c>
       <c r="S53">
+        <v>0.6</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>199</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <v>0.26</v>
       </c>
-      <c r="U53" t="s">
+      <c r="W53" t="s">
         <v>30</v>
       </c>
-      <c r="W53" t="s">
+      <c r="Y53" t="s">
         <v>31</v>
       </c>
-      <c r="X53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4415,61 +4529,64 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
         <v>41</v>
       </c>
-      <c r="H54">
+      <c r="I54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>102</v>
-      </c>
-      <c r="J54" t="s">
-        <v>27</v>
-      </c>
       <c r="K54" t="s">
+        <v>101</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
         <v>28</v>
       </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>43</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>36</v>
       </c>
-      <c r="N54" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54">
+      <c r="P54" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54">
         <v>2</v>
       </c>
-      <c r="Q54">
+      <c r="S54">
         <v>1.2</v>
       </c>
-      <c r="R54">
+      <c r="T54">
         <v>3.3</v>
       </c>
-      <c r="S54">
+      <c r="U54">
         <v>128</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <v>0.05</v>
       </c>
-      <c r="U54" t="s">
+      <c r="W54" t="s">
         <v>30</v>
       </c>
-      <c r="W54" t="s">
+      <c r="Y54" t="s">
         <v>31</v>
       </c>
-      <c r="X54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4485,257 +4602,254 @@
       <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F55" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" t="s">
+        <v>137</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
         <v>138</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>139</v>
-      </c>
-      <c r="J55" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s">
         <v>28</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>29</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>47</v>
       </c>
-      <c r="N55" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55">
+      <c r="P55" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55">
         <v>2</v>
       </c>
-      <c r="Q55">
+      <c r="S55">
         <v>3.1</v>
       </c>
-      <c r="R55">
+      <c r="T55">
         <v>5.4</v>
       </c>
-      <c r="S55">
+      <c r="U55">
         <v>153</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <v>0.02</v>
       </c>
-      <c r="U55" t="s">
+      <c r="W55" t="s">
         <v>36</v>
       </c>
-      <c r="W55" t="s">
+      <c r="Y55" t="s">
         <v>31</v>
       </c>
-      <c r="X55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>23</v>
       </c>
-      <c r="C56" t="s">
-        <v>55</v>
-      </c>
       <c r="D56" s="2">
         <v>42509</v>
       </c>
       <c r="E56" t="s">
         <v>23</v>
       </c>
-      <c r="G56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H56">
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="J56">
         <v>2</v>
       </c>
-      <c r="I56" t="s">
-        <v>141</v>
-      </c>
-      <c r="J56" t="s">
-        <v>27</v>
-      </c>
       <c r="K56" t="s">
+        <v>140</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" t="s">
         <v>28</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>29</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>74</v>
       </c>
-      <c r="N56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56">
+      <c r="P56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>25</v>
+      </c>
+      <c r="R56">
         <v>3</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>1.4</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <v>127</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <v>0.03</v>
       </c>
-      <c r="U56" t="s">
+      <c r="W56" t="s">
         <v>36</v>
       </c>
-      <c r="W56" t="s">
+      <c r="Y56" t="s">
         <v>31</v>
       </c>
-      <c r="X56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
       </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
       <c r="D57" s="2">
         <v>42509</v>
       </c>
       <c r="E57" t="s">
         <v>23</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" t="s">
         <v>33</v>
       </c>
-      <c r="H57">
+      <c r="I57" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" t="s">
-        <v>27</v>
-      </c>
       <c r="K57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" t="s">
         <v>50</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>43</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>67</v>
       </c>
-      <c r="N57" t="s">
-        <v>24</v>
-      </c>
-      <c r="P57">
+      <c r="P57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57">
         <v>4</v>
       </c>
-      <c r="Q57">
+      <c r="S57">
         <v>1</v>
       </c>
-      <c r="R57">
+      <c r="T57">
         <v>12.9</v>
       </c>
-      <c r="S57">
+      <c r="U57">
         <v>230</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <v>0.1</v>
       </c>
-      <c r="U57" t="s">
+      <c r="W57" t="s">
         <v>36</v>
       </c>
-      <c r="W57" t="s">
+      <c r="Y57" t="s">
         <v>31</v>
       </c>
-      <c r="X57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
-      <c r="C58" t="s">
-        <v>55</v>
-      </c>
       <c r="D58" s="2">
         <v>42509</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" t="s">
+        <v>207</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
         <v>144</v>
       </c>
-      <c r="H58">
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" t="s">
+        <v>43</v>
+      </c>
+      <c r="O58">
+        <v>55</v>
+      </c>
+      <c r="P58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
-        <v>145</v>
-      </c>
-      <c r="J58" t="s">
-        <v>27</v>
-      </c>
-      <c r="K58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58">
-        <v>55</v>
-      </c>
-      <c r="N58" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" t="s">
-        <v>24</v>
-      </c>
-      <c r="P58">
-        <v>2</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
+      <c r="T58">
         <v>1.5</v>
       </c>
-      <c r="S58">
+      <c r="U58">
         <v>215</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <v>0.06</v>
       </c>
-      <c r="U58" t="s">
+      <c r="W58" t="s">
         <v>30</v>
       </c>
-      <c r="W58" t="s">
+      <c r="Y58" t="s">
         <v>31</v>
       </c>
-      <c r="X58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4751,59 +4865,62 @@
       <c r="E59" t="s">
         <v>25</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" t="s">
         <v>26</v>
       </c>
-      <c r="H59">
+      <c r="I59" t="s">
+        <v>207</v>
+      </c>
+      <c r="J59">
         <v>1</v>
       </c>
-      <c r="I59" t="s">
-        <v>59</v>
-      </c>
-      <c r="J59" t="s">
-        <v>27</v>
-      </c>
       <c r="K59" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
         <v>39</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>29</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>86</v>
       </c>
-      <c r="N59" t="s">
-        <v>25</v>
-      </c>
-      <c r="O59" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59">
+      <c r="P59" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59">
         <v>1</v>
       </c>
-      <c r="Q59">
+      <c r="S59">
         <v>6.3</v>
       </c>
-      <c r="R59">
+      <c r="T59">
         <v>3.6</v>
       </c>
-      <c r="S59">
+      <c r="U59">
         <v>184</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <v>0.1</v>
       </c>
-      <c r="U59" t="s">
+      <c r="W59" t="s">
         <v>36</v>
       </c>
-      <c r="W59" t="s">
+      <c r="Y59" t="s">
         <v>44</v>
       </c>
-      <c r="X59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4820,123 +4937,123 @@
         <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60">
         <v>1</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>42</v>
       </c>
-      <c r="J60" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" t="s">
         <v>35</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>43</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>79</v>
       </c>
-      <c r="N60" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" t="s">
-        <v>24</v>
-      </c>
-      <c r="P60">
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60">
         <v>3</v>
       </c>
-      <c r="Q60">
+      <c r="S60">
         <v>2.9</v>
       </c>
-      <c r="R60">
+      <c r="T60">
         <v>16.899999999999999</v>
       </c>
-      <c r="S60">
+      <c r="U60">
         <v>237</v>
       </c>
-      <c r="T60">
+      <c r="V60">
         <v>0.13</v>
       </c>
-      <c r="U60" t="s">
+      <c r="W60" t="s">
         <v>30</v>
       </c>
-      <c r="W60" t="s">
+      <c r="Y60" t="s">
         <v>31</v>
       </c>
-      <c r="X60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
-      <c r="C61" t="s">
-        <v>55</v>
-      </c>
       <c r="D61" s="2">
         <v>42547</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
-      <c r="G61" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61">
+      <c r="F61" t="s">
+        <v>149</v>
+      </c>
+      <c r="H61" t="s">
+        <v>82</v>
+      </c>
+      <c r="J61">
         <v>1</v>
       </c>
-      <c r="I61" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" t="s">
-        <v>27</v>
-      </c>
       <c r="K61" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" t="s">
         <v>35</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>43</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>75</v>
       </c>
-      <c r="O61" t="s">
-        <v>24</v>
-      </c>
-      <c r="P61">
+      <c r="Q61" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61">
         <v>1</v>
       </c>
-      <c r="Q61">
+      <c r="S61">
         <v>12.1</v>
       </c>
-      <c r="R61">
+      <c r="T61">
         <v>12.8</v>
       </c>
-      <c r="S61">
+      <c r="U61">
         <v>217</v>
       </c>
-      <c r="T61">
+      <c r="V61">
         <v>0.08</v>
       </c>
-      <c r="W61" t="s">
+      <c r="Y61" t="s">
         <v>44</v>
       </c>
-      <c r="X61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4952,118 +5069,115 @@
       <c r="E62" t="s">
         <v>24</v>
       </c>
-      <c r="G62" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62">
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
-        <v>114</v>
-      </c>
-      <c r="J62" t="s">
-        <v>27</v>
-      </c>
       <c r="K62" t="s">
+        <v>113</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" t="s">
         <v>50</v>
       </c>
-      <c r="L62" t="s">
+      <c r="N62" t="s">
         <v>43</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>49</v>
       </c>
-      <c r="N62" t="s">
-        <v>24</v>
-      </c>
-      <c r="P62">
+      <c r="P62" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62">
         <v>1</v>
       </c>
-      <c r="Q62">
+      <c r="S62">
         <v>2.7</v>
       </c>
-      <c r="R62">
+      <c r="T62">
         <v>2.6</v>
       </c>
-      <c r="S62">
+      <c r="U62">
         <v>146</v>
       </c>
-      <c r="T62">
+      <c r="V62">
         <v>0.1</v>
       </c>
-      <c r="U62" t="s">
+      <c r="W62" t="s">
         <v>36</v>
       </c>
-      <c r="W62" t="s">
+      <c r="Y62" t="s">
         <v>31</v>
       </c>
-      <c r="X62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
-      <c r="C63" t="s">
-        <v>55</v>
-      </c>
       <c r="D63" s="2">
         <v>42535</v>
       </c>
       <c r="E63" t="s">
         <v>23</v>
       </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
-      <c r="H63">
+      <c r="F63" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
-        <v>106</v>
-      </c>
-      <c r="J63" t="s">
-        <v>27</v>
-      </c>
       <c r="K63" t="s">
+        <v>105</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="L63" t="s">
+      <c r="N63" t="s">
         <v>43</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>59</v>
       </c>
-      <c r="O63" t="s">
-        <v>24</v>
-      </c>
-      <c r="P63">
+      <c r="Q63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63">
         <v>1</v>
       </c>
-      <c r="Q63">
+      <c r="S63">
         <v>1.4</v>
       </c>
-      <c r="R63">
+      <c r="T63">
         <v>0.4</v>
       </c>
-      <c r="S63">
+      <c r="U63">
         <v>189</v>
       </c>
-      <c r="T63">
+      <c r="V63">
         <v>0.1</v>
       </c>
-      <c r="W63" t="s">
+      <c r="Y63" t="s">
         <v>44</v>
       </c>
-      <c r="X63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5079,162 +5193,162 @@
       <c r="E64" t="s">
         <v>24</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>26</v>
       </c>
-      <c r="H64">
+      <c r="I64" t="s">
+        <v>207</v>
+      </c>
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
-        <v>153</v>
-      </c>
-      <c r="J64" t="s">
-        <v>27</v>
-      </c>
       <c r="K64" t="s">
+        <v>152</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" t="s">
         <v>35</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>29</v>
       </c>
-      <c r="Q64">
+      <c r="S64">
         <v>1.6</v>
       </c>
-      <c r="R64">
+      <c r="T64">
         <v>2.5</v>
       </c>
-      <c r="S64">
+      <c r="U64">
         <v>189</v>
       </c>
-      <c r="T64">
+      <c r="V64">
         <v>0.08</v>
       </c>
-      <c r="U64" t="s">
+      <c r="W64" t="s">
         <v>36</v>
       </c>
-      <c r="W64" t="s">
+      <c r="Y64" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
-      <c r="C65" t="s">
-        <v>55</v>
-      </c>
       <c r="D65" s="2">
         <v>42537</v>
       </c>
       <c r="E65" t="s">
         <v>23</v>
       </c>
-      <c r="G65" t="s">
-        <v>83</v>
-      </c>
-      <c r="H65">
+      <c r="F65" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
-        <v>75</v>
-      </c>
-      <c r="J65" t="s">
-        <v>27</v>
-      </c>
       <c r="K65" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s">
         <v>28</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>80</v>
       </c>
-      <c r="N65" t="s">
-        <v>25</v>
-      </c>
-      <c r="O65" t="s">
-        <v>25</v>
-      </c>
-      <c r="P65">
+      <c r="P65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>25</v>
+      </c>
+      <c r="R65">
         <v>1</v>
       </c>
-      <c r="Q65">
+      <c r="S65">
         <v>5.9</v>
       </c>
-      <c r="R65">
+      <c r="T65">
         <v>0.3</v>
       </c>
-      <c r="S65">
+      <c r="U65">
         <v>294</v>
       </c>
-      <c r="T65">
+      <c r="V65">
         <v>0.06</v>
       </c>
-      <c r="V65" t="s">
+      <c r="X65" t="s">
         <v>53</v>
       </c>
-      <c r="W65" t="s">
+      <c r="Y65" t="s">
         <v>44</v>
       </c>
-      <c r="X65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
       </c>
-      <c r="C66" t="s">
-        <v>55</v>
-      </c>
       <c r="D66" s="2">
         <v>42537</v>
       </c>
       <c r="E66" t="s">
         <v>23</v>
       </c>
-      <c r="G66" t="s">
-        <v>155</v>
-      </c>
-      <c r="H66">
+      <c r="H66" t="s">
+        <v>154</v>
+      </c>
+      <c r="I66" t="s">
+        <v>209</v>
+      </c>
+      <c r="J66">
         <v>2</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>23</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>23</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66" t="s">
         <v>43</v>
       </c>
-      <c r="Q66">
+      <c r="S66">
         <v>0.4</v>
       </c>
-      <c r="R66">
+      <c r="T66">
         <v>0.6</v>
       </c>
-      <c r="S66">
+      <c r="U66">
         <v>213</v>
       </c>
-      <c r="T66">
+      <c r="V66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U66" t="s">
+      <c r="W66" t="s">
         <v>30</v>
       </c>
-      <c r="W66" t="s">
+      <c r="Y66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5250,59 +5364,59 @@
       <c r="E67" t="s">
         <v>24</v>
       </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67">
+      <c r="F67" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>156</v>
-      </c>
-      <c r="J67" t="s">
-        <v>27</v>
-      </c>
       <c r="K67" t="s">
+        <v>155</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" t="s">
         <v>50</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>29</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>51</v>
       </c>
-      <c r="N67" t="s">
-        <v>25</v>
-      </c>
-      <c r="O67" t="s">
-        <v>24</v>
-      </c>
-      <c r="P67">
+      <c r="P67" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>24</v>
+      </c>
+      <c r="R67">
         <v>2</v>
       </c>
-      <c r="Q67">
+      <c r="S67">
         <v>12.5</v>
       </c>
-      <c r="R67">
+      <c r="T67">
         <v>0.5</v>
       </c>
-      <c r="S67">
+      <c r="U67">
         <v>177</v>
       </c>
-      <c r="T67">
+      <c r="V67">
         <v>0.04</v>
       </c>
-      <c r="U67" t="s">
+      <c r="W67" t="s">
         <v>30</v>
       </c>
-      <c r="W67" t="s">
+      <c r="Y67" t="s">
         <v>31</v>
       </c>
-      <c r="X67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5318,41 +5432,44 @@
       <c r="E68" t="s">
         <v>25</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>26</v>
       </c>
-      <c r="H68">
+      <c r="I68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
+      <c r="K68" t="s">
         <v>23</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>23</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
         <v>29</v>
       </c>
-      <c r="Q68">
+      <c r="S68">
         <v>0.3</v>
       </c>
-      <c r="R68">
+      <c r="T68">
         <v>15.2</v>
       </c>
-      <c r="S68">
+      <c r="U68">
         <v>288</v>
       </c>
-      <c r="T68">
+      <c r="V68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U68" t="s">
+      <c r="W68" t="s">
         <v>30</v>
       </c>
-      <c r="W68" t="s">
+      <c r="Y68" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5368,44 +5485,47 @@
       <c r="E69" t="s">
         <v>24</v>
       </c>
-      <c r="G69" t="s">
-        <v>110</v>
-      </c>
-      <c r="H69">
+      <c r="H69" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" t="s">
+        <v>207</v>
+      </c>
+      <c r="J69">
         <v>2</v>
       </c>
-      <c r="I69" t="s">
+      <c r="K69" t="s">
         <v>34</v>
       </c>
-      <c r="J69" t="s">
-        <v>27</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" t="s">
         <v>39</v>
       </c>
-      <c r="L69" t="s">
+      <c r="N69" t="s">
         <v>43</v>
       </c>
-      <c r="Q69">
+      <c r="S69">
         <v>2.4</v>
       </c>
-      <c r="R69">
+      <c r="T69">
         <v>10.9</v>
       </c>
-      <c r="S69">
+      <c r="U69">
         <v>200</v>
       </c>
-      <c r="T69">
+      <c r="V69">
         <v>0.15</v>
       </c>
-      <c r="U69" t="s">
+      <c r="W69" t="s">
         <v>36</v>
       </c>
-      <c r="W69" t="s">
+      <c r="Y69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5421,59 +5541,62 @@
       <c r="E70" t="s">
         <v>24</v>
       </c>
-      <c r="G70" t="s">
-        <v>110</v>
-      </c>
-      <c r="H70">
+      <c r="F70" t="s">
+        <v>158</v>
+      </c>
+      <c r="H70" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" t="s">
+        <v>207</v>
+      </c>
+      <c r="J70">
         <v>1</v>
       </c>
-      <c r="I70" t="s">
-        <v>158</v>
-      </c>
-      <c r="J70" t="s">
-        <v>27</v>
-      </c>
       <c r="K70" t="s">
+        <v>157</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" t="s">
         <v>28</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>29</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>67</v>
       </c>
-      <c r="N70" t="s">
-        <v>25</v>
-      </c>
-      <c r="O70" t="s">
-        <v>24</v>
-      </c>
-      <c r="P70">
+      <c r="P70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70">
         <v>4</v>
       </c>
-      <c r="Q70">
+      <c r="S70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R70">
+      <c r="T70">
         <v>12.7</v>
       </c>
-      <c r="S70">
+      <c r="U70">
         <v>228</v>
       </c>
-      <c r="T70">
+      <c r="V70">
         <v>0.1</v>
       </c>
-      <c r="U70" t="s">
+      <c r="W70" t="s">
         <v>30</v>
       </c>
-      <c r="W70" t="s">
+      <c r="Y70" t="s">
         <v>31</v>
       </c>
-      <c r="X70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5489,44 +5612,47 @@
       <c r="E71" t="s">
         <v>25</v>
       </c>
-      <c r="G71" t="s">
-        <v>160</v>
-      </c>
-      <c r="H71">
+      <c r="H71" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" t="s">
+        <v>209</v>
+      </c>
+      <c r="J71">
         <v>2</v>
       </c>
-      <c r="I71" t="s">
-        <v>57</v>
-      </c>
-      <c r="J71" t="s">
-        <v>86</v>
-      </c>
       <c r="K71" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="L71" t="s">
+        <v>85</v>
+      </c>
+      <c r="M71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N71" t="s">
         <v>43</v>
       </c>
-      <c r="Q71">
+      <c r="S71">
         <v>2.1</v>
       </c>
-      <c r="R71">
+      <c r="T71">
         <v>10.5</v>
       </c>
-      <c r="S71">
+      <c r="U71">
         <v>333</v>
       </c>
-      <c r="T71">
+      <c r="V71">
         <v>0.57999999999999996</v>
       </c>
-      <c r="U71" t="s">
+      <c r="W71" t="s">
         <v>30</v>
       </c>
-      <c r="W71" t="s">
+      <c r="Y71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5542,124 +5668,124 @@
       <c r="E72" t="s">
         <v>24</v>
       </c>
-      <c r="G72" t="s">
-        <v>110</v>
-      </c>
-      <c r="H72">
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" t="s">
+        <v>207</v>
+      </c>
+      <c r="J72">
         <v>1</v>
       </c>
-      <c r="I72" t="s">
-        <v>161</v>
-      </c>
-      <c r="J72" t="s">
-        <v>27</v>
-      </c>
       <c r="K72" t="s">
+        <v>160</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" t="s">
         <v>28</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>29</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>83</v>
       </c>
-      <c r="N72" t="s">
-        <v>25</v>
-      </c>
-      <c r="P72">
+      <c r="P72" t="s">
+        <v>25</v>
+      </c>
+      <c r="R72">
         <v>4</v>
       </c>
-      <c r="Q72">
+      <c r="S72">
         <v>0.5</v>
       </c>
-      <c r="R72">
+      <c r="T72">
         <v>1.9</v>
       </c>
-      <c r="S72">
+      <c r="U72">
         <v>191</v>
       </c>
-      <c r="T72">
+      <c r="V72">
         <v>0.37</v>
       </c>
-      <c r="U72" t="s">
+      <c r="W72" t="s">
         <v>36</v>
       </c>
-      <c r="W72" t="s">
+      <c r="Y72" t="s">
         <v>31</v>
       </c>
-      <c r="X72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
-      <c r="C73" t="s">
-        <v>55</v>
-      </c>
       <c r="D73" s="2">
         <v>42556</v>
       </c>
       <c r="E73" t="s">
         <v>23</v>
       </c>
-      <c r="G73" t="s">
-        <v>83</v>
-      </c>
-      <c r="H73">
+      <c r="F73" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>163</v>
-      </c>
-      <c r="J73" t="s">
-        <v>27</v>
-      </c>
       <c r="K73" t="s">
+        <v>162</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" t="s">
         <v>50</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>29</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>60</v>
       </c>
-      <c r="N73" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" t="s">
-        <v>25</v>
-      </c>
-      <c r="P73">
+      <c r="P73" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73">
         <v>1</v>
       </c>
-      <c r="Q73">
+      <c r="S73">
         <v>1.6</v>
       </c>
-      <c r="R73">
+      <c r="T73">
         <v>1.8</v>
       </c>
-      <c r="S73">
+      <c r="U73">
         <v>181</v>
       </c>
-      <c r="T73">
+      <c r="V73">
         <v>0.06</v>
       </c>
-      <c r="U73" t="s">
+      <c r="W73" t="s">
         <v>36</v>
       </c>
-      <c r="W73" t="s">
+      <c r="Y73" t="s">
         <v>44</v>
       </c>
-      <c r="X73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5675,127 +5801,127 @@
       <c r="E74" t="s">
         <v>24</v>
       </c>
-      <c r="G74" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74">
+      <c r="F74" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>120</v>
-      </c>
-      <c r="J74" t="s">
-        <v>27</v>
-      </c>
       <c r="K74" t="s">
+        <v>119</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" t="s">
         <v>35</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>29</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>81</v>
       </c>
-      <c r="N74" t="s">
-        <v>24</v>
-      </c>
-      <c r="O74" t="s">
-        <v>25</v>
-      </c>
-      <c r="P74">
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74">
         <v>1</v>
       </c>
-      <c r="Q74">
+      <c r="S74">
         <v>0.2</v>
       </c>
-      <c r="R74">
+      <c r="T74">
         <v>0.3</v>
       </c>
-      <c r="S74">
+      <c r="U74">
         <v>310</v>
       </c>
-      <c r="T74">
+      <c r="V74">
         <v>0.1</v>
       </c>
-      <c r="U74" t="s">
+      <c r="W74" t="s">
         <v>30</v>
       </c>
-      <c r="W74" t="s">
+      <c r="Y74" t="s">
         <v>31</v>
       </c>
-      <c r="X74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
       </c>
-      <c r="C75" t="s">
-        <v>55</v>
-      </c>
       <c r="D75" s="2">
         <v>42556</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
       </c>
-      <c r="G75" t="s">
+      <c r="F75" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" t="s">
         <v>33</v>
       </c>
-      <c r="H75">
+      <c r="I75" t="s">
+        <v>208</v>
+      </c>
+      <c r="J75">
         <v>0</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>1.27</v>
       </c>
-      <c r="J75" t="s">
-        <v>27</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" t="s">
         <v>28</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>29</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>39</v>
       </c>
-      <c r="N75" t="s">
-        <v>25</v>
-      </c>
-      <c r="O75" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75">
+      <c r="P75" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>24</v>
+      </c>
+      <c r="R75">
         <v>2</v>
       </c>
-      <c r="Q75">
+      <c r="S75">
         <v>2.9</v>
       </c>
-      <c r="R75">
+      <c r="T75">
         <v>3.4</v>
       </c>
-      <c r="S75">
+      <c r="U75">
         <v>241</v>
       </c>
-      <c r="T75">
+      <c r="V75">
         <v>0.04</v>
       </c>
-      <c r="U75" t="s">
+      <c r="W75" t="s">
         <v>36</v>
       </c>
-      <c r="W75" t="s">
+      <c r="Y75" t="s">
         <v>31</v>
       </c>
-      <c r="X75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5811,59 +5937,62 @@
       <c r="E76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H76" t="s">
         <v>33</v>
       </c>
-      <c r="H76">
+      <c r="I76" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76">
         <v>1</v>
       </c>
-      <c r="I76" t="s">
-        <v>167</v>
-      </c>
-      <c r="J76" t="s">
-        <v>27</v>
-      </c>
       <c r="K76" t="s">
+        <v>166</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" t="s">
         <v>39</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>43</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>66</v>
       </c>
-      <c r="N76" t="s">
-        <v>24</v>
-      </c>
-      <c r="O76" t="s">
-        <v>25</v>
-      </c>
-      <c r="P76">
+      <c r="P76" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76">
         <v>3</v>
       </c>
-      <c r="Q76">
+      <c r="S76">
         <v>1.3</v>
       </c>
-      <c r="R76">
+      <c r="T76">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S76">
+      <c r="U76">
         <v>211</v>
       </c>
-      <c r="T76">
+      <c r="V76">
         <v>0.12</v>
       </c>
-      <c r="U76" t="s">
+      <c r="W76" t="s">
         <v>36</v>
       </c>
-      <c r="W76" t="s">
+      <c r="Y76" t="s">
         <v>31</v>
       </c>
-      <c r="X76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5879,115 +6008,115 @@
       <c r="E77" t="s">
         <v>24</v>
       </c>
-      <c r="F77" t="s">
-        <v>73</v>
-      </c>
       <c r="G77" t="s">
-        <v>83</v>
-      </c>
-      <c r="H77">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>88</v>
-      </c>
-      <c r="J77" t="s">
-        <v>27</v>
-      </c>
       <c r="K77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" t="s">
         <v>50</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>29</v>
       </c>
-      <c r="Q77">
+      <c r="S77">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R77">
+      <c r="T77">
         <v>1.2</v>
       </c>
-      <c r="S77">
+      <c r="U77">
         <v>201</v>
       </c>
-      <c r="T77">
+      <c r="V77">
         <v>0.03</v>
       </c>
-      <c r="U77" t="s">
+      <c r="W77" t="s">
         <v>30</v>
       </c>
-      <c r="W77" t="s">
+      <c r="Y77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
       </c>
-      <c r="C78" t="s">
-        <v>55</v>
-      </c>
       <c r="D78" s="2">
         <v>42586</v>
       </c>
       <c r="E78" t="s">
         <v>23</v>
       </c>
-      <c r="G78" t="s">
+      <c r="F78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" t="s">
+        <v>209</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>105</v>
+      </c>
+      <c r="L78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" t="s">
+        <v>50</v>
+      </c>
+      <c r="N78" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78">
+        <v>43</v>
+      </c>
+      <c r="P78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>24</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1.6</v>
+      </c>
+      <c r="T78">
+        <v>0.9</v>
+      </c>
+      <c r="U78">
+        <v>189</v>
+      </c>
+      <c r="V78">
+        <v>0.02</v>
+      </c>
+      <c r="W78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y78" t="s">
         <v>169</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-      <c r="J78" t="s">
-        <v>27</v>
-      </c>
-      <c r="K78" t="s">
-        <v>50</v>
-      </c>
-      <c r="L78" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78">
-        <v>43</v>
-      </c>
-      <c r="N78" t="s">
-        <v>25</v>
-      </c>
-      <c r="O78" t="s">
-        <v>24</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>1.6</v>
-      </c>
-      <c r="R78">
-        <v>0.9</v>
-      </c>
-      <c r="S78">
-        <v>189</v>
-      </c>
-      <c r="T78">
-        <v>0.02</v>
-      </c>
-      <c r="U78" t="s">
-        <v>36</v>
-      </c>
-      <c r="W78" t="s">
-        <v>170</v>
-      </c>
-      <c r="X78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6003,44 +6132,47 @@
       <c r="E79" t="s">
         <v>25</v>
       </c>
-      <c r="G79" t="s">
-        <v>110</v>
-      </c>
-      <c r="H79">
+      <c r="H79" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" t="s">
+        <v>207</v>
+      </c>
+      <c r="J79">
         <v>1</v>
       </c>
-      <c r="I79" t="s">
-        <v>141</v>
-      </c>
-      <c r="J79" t="s">
-        <v>27</v>
-      </c>
       <c r="K79" t="s">
+        <v>140</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" t="s">
         <v>28</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
         <v>43</v>
       </c>
-      <c r="Q79">
+      <c r="S79">
         <v>7.3</v>
       </c>
-      <c r="R79">
+      <c r="T79">
         <v>1.2</v>
       </c>
-      <c r="S79">
+      <c r="U79">
         <v>250</v>
       </c>
-      <c r="T79">
+      <c r="V79">
         <v>0.56999999999999995</v>
       </c>
-      <c r="V79" t="s">
+      <c r="X79" t="s">
         <v>53</v>
       </c>
-      <c r="W79" t="s">
+      <c r="Y79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6056,59 +6188,62 @@
       <c r="E80" t="s">
         <v>25</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s">
         <v>172</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I80" t="s">
+        <v>207</v>
+      </c>
+      <c r="J80">
         <v>1</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>52</v>
       </c>
-      <c r="J80" t="s">
-        <v>27</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" t="s">
         <v>28</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>43</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>75</v>
       </c>
-      <c r="N80" t="s">
-        <v>25</v>
-      </c>
-      <c r="O80" t="s">
-        <v>25</v>
-      </c>
-      <c r="P80">
+      <c r="P80" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80">
         <v>3</v>
       </c>
-      <c r="Q80">
+      <c r="S80">
         <v>0.4</v>
       </c>
-      <c r="R80">
+      <c r="T80">
         <v>7.7</v>
       </c>
-      <c r="S80">
+      <c r="U80">
         <v>214</v>
       </c>
-      <c r="T80">
+      <c r="V80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U80" t="s">
+      <c r="W80" t="s">
         <v>36</v>
       </c>
-      <c r="W80" t="s">
+      <c r="Y80" t="s">
         <v>31</v>
       </c>
-      <c r="X80" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6125,61 +6260,64 @@
         <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s">
         <v>33</v>
       </c>
-      <c r="H81">
+      <c r="I81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
-        <v>174</v>
-      </c>
-      <c r="J81" t="s">
-        <v>27</v>
-      </c>
       <c r="K81" t="s">
+        <v>173</v>
+      </c>
+      <c r="L81" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" t="s">
         <v>35</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>43</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>31</v>
       </c>
-      <c r="N81" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81">
+      <c r="P81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81">
         <v>2</v>
       </c>
-      <c r="Q81">
+      <c r="S81">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R81">
+      <c r="T81">
         <v>4.5</v>
       </c>
-      <c r="S81">
+      <c r="U81">
         <v>188</v>
       </c>
-      <c r="T81">
+      <c r="V81">
         <v>0.06</v>
       </c>
-      <c r="U81" t="s">
+      <c r="W81" t="s">
         <v>36</v>
       </c>
-      <c r="W81" t="s">
+      <c r="Y81" t="s">
         <v>31</v>
       </c>
-      <c r="X81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6195,59 +6333,62 @@
       <c r="E82" t="s">
         <v>25</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
+        <v>176</v>
+      </c>
+      <c r="H82" t="s">
         <v>26</v>
       </c>
-      <c r="H82">
+      <c r="I82" t="s">
+        <v>207</v>
+      </c>
+      <c r="J82">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
-        <v>176</v>
-      </c>
-      <c r="J82" t="s">
-        <v>27</v>
-      </c>
       <c r="K82" t="s">
+        <v>175</v>
+      </c>
+      <c r="L82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" t="s">
         <v>50</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>43</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>57</v>
       </c>
-      <c r="N82" t="s">
-        <v>24</v>
-      </c>
-      <c r="O82" t="s">
-        <v>25</v>
-      </c>
-      <c r="P82">
+      <c r="P82" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>25</v>
+      </c>
+      <c r="R82">
         <v>2</v>
       </c>
-      <c r="Q82">
+      <c r="S82">
         <v>5.9</v>
       </c>
-      <c r="R82">
+      <c r="T82">
         <v>0.6</v>
       </c>
-      <c r="S82">
+      <c r="U82">
         <v>169</v>
       </c>
-      <c r="T82">
+      <c r="V82">
         <v>0.04</v>
       </c>
-      <c r="U82" t="s">
+      <c r="W82" t="s">
         <v>36</v>
       </c>
-      <c r="W82" t="s">
+      <c r="Y82" t="s">
         <v>31</v>
       </c>
-      <c r="X82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6263,44 +6404,47 @@
       <c r="E83" t="s">
         <v>25</v>
       </c>
-      <c r="G83" t="s">
-        <v>110</v>
-      </c>
-      <c r="H83">
+      <c r="H83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="s">
+        <v>207</v>
+      </c>
+      <c r="J83">
         <v>1</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
         <v>23</v>
       </c>
-      <c r="J83" t="s">
-        <v>86</v>
-      </c>
-      <c r="K83" t="s">
-        <v>124</v>
-      </c>
       <c r="L83" t="s">
+        <v>85</v>
+      </c>
+      <c r="M83" t="s">
+        <v>123</v>
+      </c>
+      <c r="N83" t="s">
         <v>43</v>
       </c>
-      <c r="Q83">
+      <c r="S83">
         <v>4.3</v>
       </c>
-      <c r="R83">
+      <c r="T83">
         <v>47.2</v>
       </c>
-      <c r="S83">
+      <c r="U83">
         <v>2022</v>
       </c>
-      <c r="T83">
+      <c r="V83">
         <v>2.0699999999999998</v>
       </c>
-      <c r="V83" t="s">
+      <c r="X83" t="s">
         <v>53</v>
       </c>
-      <c r="W83" t="s">
+      <c r="Y83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6316,112 +6460,115 @@
       <c r="E84" t="s">
         <v>25</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>41</v>
       </c>
-      <c r="H84">
+      <c r="I84" t="s">
+        <v>207</v>
+      </c>
+      <c r="J84">
         <v>1</v>
       </c>
-      <c r="I84" t="s">
-        <v>178</v>
-      </c>
-      <c r="J84" t="s">
-        <v>27</v>
-      </c>
       <c r="K84" t="s">
+        <v>177</v>
+      </c>
+      <c r="L84" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" t="s">
         <v>50</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>29</v>
       </c>
-      <c r="Q84">
+      <c r="S84">
         <v>0.2</v>
       </c>
-      <c r="R84">
+      <c r="T84">
         <v>21.6</v>
       </c>
-      <c r="S84">
+      <c r="U84">
         <v>235</v>
       </c>
-      <c r="T84">
+      <c r="V84">
         <v>5.41</v>
       </c>
-      <c r="U84" t="s">
+      <c r="W84" t="s">
         <v>36</v>
       </c>
-      <c r="W84" t="s">
+      <c r="Y84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="C85" t="s">
-        <v>55</v>
-      </c>
       <c r="D85" s="2">
         <v>42612</v>
       </c>
       <c r="E85" t="s">
         <v>23</v>
       </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s">
+        <v>179</v>
+      </c>
+      <c r="H85" t="s">
         <v>33</v>
       </c>
-      <c r="H85">
+      <c r="I85" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>179</v>
-      </c>
-      <c r="J85" t="s">
-        <v>27</v>
-      </c>
       <c r="K85" t="s">
+        <v>178</v>
+      </c>
+      <c r="L85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" t="s">
         <v>28</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>29</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>38</v>
       </c>
-      <c r="N85" t="s">
-        <v>25</v>
-      </c>
-      <c r="O85" t="s">
-        <v>25</v>
-      </c>
-      <c r="P85">
+      <c r="P85" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>25</v>
+      </c>
+      <c r="R85">
         <v>3</v>
       </c>
-      <c r="Q85">
+      <c r="S85">
         <v>3</v>
       </c>
-      <c r="R85">
+      <c r="T85">
         <v>3.8</v>
       </c>
-      <c r="S85">
+      <c r="U85">
         <v>210</v>
       </c>
-      <c r="T85">
+      <c r="V85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U85" t="s">
+      <c r="W85" t="s">
         <v>36</v>
       </c>
-      <c r="W85" t="s">
+      <c r="Y85" t="s">
         <v>31</v>
       </c>
-      <c r="X85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6437,59 +6584,59 @@
       <c r="E86" t="s">
         <v>24</v>
       </c>
-      <c r="G86" t="s">
-        <v>83</v>
-      </c>
-      <c r="H86">
+      <c r="F86" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
-        <v>156</v>
-      </c>
-      <c r="J86" t="s">
-        <v>27</v>
-      </c>
       <c r="K86" t="s">
+        <v>155</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" t="s">
         <v>50</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>43</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>52</v>
       </c>
-      <c r="N86" t="s">
-        <v>25</v>
-      </c>
-      <c r="O86" t="s">
-        <v>24</v>
-      </c>
-      <c r="P86">
+      <c r="P86" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86">
         <v>4</v>
       </c>
-      <c r="Q86">
+      <c r="S86">
         <v>12.4</v>
       </c>
-      <c r="R86">
+      <c r="T86">
         <v>0.5</v>
       </c>
-      <c r="S86">
+      <c r="U86">
         <v>177</v>
       </c>
-      <c r="T86">
+      <c r="V86">
         <v>0.05</v>
       </c>
-      <c r="U86" t="s">
+      <c r="W86" t="s">
         <v>30</v>
       </c>
-      <c r="W86" t="s">
+      <c r="Y86" t="s">
         <v>31</v>
       </c>
-      <c r="X86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6505,124 +6652,127 @@
       <c r="E87" t="s">
         <v>24</v>
       </c>
-      <c r="G87" t="s">
+      <c r="F87" t="s">
+        <v>182</v>
+      </c>
+      <c r="H87" t="s">
         <v>26</v>
       </c>
-      <c r="H87">
+      <c r="I87" t="s">
+        <v>207</v>
+      </c>
+      <c r="J87">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
-        <v>182</v>
-      </c>
-      <c r="J87" t="s">
-        <v>27</v>
-      </c>
       <c r="K87" t="s">
+        <v>181</v>
+      </c>
+      <c r="L87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" t="s">
         <v>28</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>43</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>49</v>
       </c>
-      <c r="N87" t="s">
-        <v>25</v>
-      </c>
-      <c r="O87" t="s">
-        <v>24</v>
-      </c>
-      <c r="P87">
+      <c r="P87" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>24</v>
+      </c>
+      <c r="R87">
         <v>1</v>
       </c>
-      <c r="Q87">
+      <c r="S87">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R87">
+      <c r="T87">
         <v>8.8000000000000007</v>
       </c>
-      <c r="S87">
+      <c r="U87">
         <v>195</v>
       </c>
-      <c r="T87">
+      <c r="V87">
         <v>0.3</v>
       </c>
-      <c r="U87" t="s">
+      <c r="W87" t="s">
         <v>36</v>
       </c>
-      <c r="W87" t="s">
+      <c r="Y87" t="s">
         <v>31</v>
       </c>
-      <c r="X87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
-      <c r="C88" t="s">
-        <v>55</v>
-      </c>
       <c r="D88" s="2">
         <v>42670</v>
       </c>
       <c r="E88" t="s">
         <v>23</v>
       </c>
-      <c r="G88" t="s">
+      <c r="F88" t="s">
+        <v>183</v>
+      </c>
+      <c r="H88" t="s">
         <v>33</v>
       </c>
-      <c r="H88">
+      <c r="I88" t="s">
+        <v>208</v>
+      </c>
+      <c r="J88">
         <v>1</v>
       </c>
-      <c r="I88" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" t="s">
-        <v>27</v>
-      </c>
       <c r="K88" t="s">
+        <v>107</v>
+      </c>
+      <c r="L88" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" t="s">
         <v>28</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>29</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>71</v>
       </c>
-      <c r="N88" t="s">
-        <v>25</v>
-      </c>
-      <c r="P88">
+      <c r="P88" t="s">
+        <v>25</v>
+      </c>
+      <c r="R88">
         <v>1</v>
       </c>
-      <c r="Q88">
+      <c r="S88">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R88">
+      <c r="T88">
         <v>4.7</v>
       </c>
-      <c r="S88">
+      <c r="U88">
         <v>385</v>
       </c>
-      <c r="T88">
+      <c r="V88">
         <v>0.23</v>
       </c>
-      <c r="U88" t="s">
+      <c r="W88" t="s">
         <v>36</v>
       </c>
-      <c r="W88" t="s">
+      <c r="Y88" t="s">
         <v>31</v>
       </c>
-      <c r="X88" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6638,127 +6788,127 @@
       <c r="E89" t="s">
         <v>25</v>
       </c>
-      <c r="G89" t="s">
+      <c r="F89" t="s">
+        <v>186</v>
+      </c>
+      <c r="H89" t="s">
+        <v>184</v>
+      </c>
+      <c r="I89" t="s">
+        <v>208</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>69</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" t="s">
+        <v>28</v>
+      </c>
+      <c r="N89" t="s">
+        <v>43</v>
+      </c>
+      <c r="O89">
+        <v>63</v>
+      </c>
+      <c r="P89" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>25</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T89">
+        <v>29.7</v>
+      </c>
+      <c r="U89">
+        <v>409</v>
+      </c>
+      <c r="V89">
+        <v>0.13</v>
+      </c>
+      <c r="W89" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y89" t="s">
         <v>185</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>70</v>
-      </c>
-      <c r="J89" t="s">
-        <v>27</v>
-      </c>
-      <c r="K89" t="s">
-        <v>28</v>
-      </c>
-      <c r="L89" t="s">
-        <v>43</v>
-      </c>
-      <c r="M89">
-        <v>63</v>
-      </c>
-      <c r="N89" t="s">
-        <v>25</v>
-      </c>
-      <c r="O89" t="s">
-        <v>25</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R89">
-        <v>29.7</v>
-      </c>
-      <c r="S89">
-        <v>409</v>
-      </c>
-      <c r="T89">
-        <v>0.13</v>
-      </c>
-      <c r="U89" t="s">
-        <v>36</v>
-      </c>
-      <c r="W89" t="s">
-        <v>186</v>
-      </c>
-      <c r="X89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
       </c>
-      <c r="C90" t="s">
-        <v>55</v>
-      </c>
       <c r="D90" s="2">
         <v>42677</v>
       </c>
       <c r="E90" t="s">
         <v>23</v>
       </c>
-      <c r="G90" t="s">
-        <v>83</v>
-      </c>
-      <c r="H90">
+      <c r="F90" t="s">
+        <v>187</v>
+      </c>
+      <c r="H90" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
-        <v>131</v>
-      </c>
-      <c r="J90" t="s">
-        <v>27</v>
-      </c>
       <c r="K90" t="s">
+        <v>130</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" t="s">
         <v>35</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>43</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>73</v>
       </c>
-      <c r="N90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P90">
+      <c r="P90" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>25</v>
+      </c>
+      <c r="R90">
         <v>3</v>
       </c>
-      <c r="Q90">
+      <c r="S90">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R90">
+      <c r="T90">
         <v>5.2</v>
       </c>
-      <c r="S90">
+      <c r="U90">
         <v>195</v>
       </c>
-      <c r="T90">
+      <c r="V90">
         <v>0.08</v>
       </c>
-      <c r="U90" t="s">
-        <v>71</v>
-      </c>
       <c r="W90" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y90" t="s">
         <v>31</v>
       </c>
-      <c r="X90" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6774,56 +6924,56 @@
       <c r="E91" t="s">
         <v>24</v>
       </c>
-      <c r="G91" t="s">
-        <v>83</v>
-      </c>
-      <c r="H91">
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+      <c r="H91" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
+        <v>188</v>
+      </c>
+      <c r="L91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" t="s">
+        <v>29</v>
+      </c>
+      <c r="O91">
+        <v>76</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>25</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>5.4</v>
+      </c>
+      <c r="T91">
+        <v>1.7</v>
+      </c>
+      <c r="U91">
+        <v>183</v>
+      </c>
+      <c r="V91">
+        <v>0.94</v>
+      </c>
+      <c r="W91" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y91" t="s">
         <v>189</v>
       </c>
-      <c r="J91" t="s">
-        <v>27</v>
-      </c>
-      <c r="K91" t="s">
-        <v>28</v>
-      </c>
-      <c r="L91" t="s">
-        <v>29</v>
-      </c>
-      <c r="M91">
-        <v>76</v>
-      </c>
-      <c r="O91" t="s">
-        <v>25</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>5.4</v>
-      </c>
-      <c r="R91">
-        <v>1.7</v>
-      </c>
-      <c r="S91">
-        <v>183</v>
-      </c>
-      <c r="T91">
-        <v>0.94</v>
-      </c>
-      <c r="U91" t="s">
-        <v>36</v>
-      </c>
-      <c r="W91" t="s">
-        <v>190</v>
-      </c>
-      <c r="X91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6839,41 +6989,44 @@
       <c r="E92" t="s">
         <v>24</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>41</v>
       </c>
-      <c r="H92">
+      <c r="I92" t="s">
+        <v>207</v>
+      </c>
+      <c r="J92">
         <v>2</v>
       </c>
-      <c r="I92" t="s">
-        <v>192</v>
-      </c>
-      <c r="J92" t="s">
-        <v>27</v>
-      </c>
       <c r="K92" t="s">
+        <v>191</v>
+      </c>
+      <c r="L92" t="s">
+        <v>27</v>
+      </c>
+      <c r="M92" t="s">
         <v>28</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>29</v>
       </c>
-      <c r="Q92">
+      <c r="S92">
         <v>0.3</v>
       </c>
-      <c r="R92">
+      <c r="T92">
         <v>110.6</v>
       </c>
-      <c r="S92">
+      <c r="U92">
         <v>414</v>
       </c>
-      <c r="U92" t="s">
+      <c r="W92" t="s">
         <v>30</v>
       </c>
-      <c r="W92" t="s">
+      <c r="Y92" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6889,59 +7042,62 @@
       <c r="E93" t="s">
         <v>24</v>
       </c>
-      <c r="G93" t="s">
+      <c r="F93" t="s">
+        <v>192</v>
+      </c>
+      <c r="H93" t="s">
         <v>26</v>
       </c>
-      <c r="H93">
+      <c r="I93" t="s">
+        <v>207</v>
+      </c>
+      <c r="J93">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
-        <v>67</v>
-      </c>
-      <c r="J93" t="s">
-        <v>27</v>
-      </c>
       <c r="K93" t="s">
+        <v>66</v>
+      </c>
+      <c r="L93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93" t="s">
         <v>35</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>29</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>69</v>
       </c>
-      <c r="N93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O93" t="s">
-        <v>25</v>
-      </c>
-      <c r="P93">
+      <c r="P93" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93">
         <v>1</v>
       </c>
-      <c r="Q93">
+      <c r="S93">
         <v>3.1</v>
       </c>
-      <c r="R93">
+      <c r="T93">
         <v>1.6</v>
       </c>
-      <c r="S93">
+      <c r="U93">
         <v>235</v>
       </c>
-      <c r="T93">
+      <c r="V93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U93" t="s">
-        <v>71</v>
-      </c>
       <c r="W93" t="s">
-        <v>190</v>
-      </c>
-      <c r="X93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6957,44 +7113,47 @@
       <c r="E94" t="s">
         <v>25</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>41</v>
       </c>
-      <c r="H94">
+      <c r="I94" t="s">
+        <v>207</v>
+      </c>
+      <c r="J94">
         <v>0</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>52</v>
       </c>
-      <c r="J94" t="s">
-        <v>27</v>
-      </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
+        <v>27</v>
+      </c>
+      <c r="M94" t="s">
         <v>28</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>29</v>
       </c>
-      <c r="Q94">
+      <c r="S94">
         <v>0</v>
       </c>
-      <c r="R94">
+      <c r="T94">
         <v>1.3</v>
       </c>
-      <c r="S94">
+      <c r="U94">
         <v>194</v>
       </c>
-      <c r="T94">
+      <c r="V94">
         <v>0.05</v>
       </c>
-      <c r="U94" t="s">
+      <c r="W94" t="s">
         <v>36</v>
       </c>
-      <c r="W94" t="s">
+      <c r="Y94" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7010,44 +7169,44 @@
       <c r="E95" t="s">
         <v>25</v>
       </c>
-      <c r="G95" t="s">
-        <v>83</v>
-      </c>
-      <c r="H95">
+      <c r="H95" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95">
         <v>2</v>
       </c>
-      <c r="I95" t="s">
+      <c r="K95" t="s">
         <v>23</v>
       </c>
-      <c r="J95" t="s">
-        <v>27</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95" t="s">
         <v>50</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>29</v>
       </c>
-      <c r="Q95">
+      <c r="S95">
         <v>0.6</v>
       </c>
-      <c r="R95">
+      <c r="T95">
         <v>10.199999999999999</v>
       </c>
-      <c r="S95">
+      <c r="U95">
         <v>234</v>
       </c>
-      <c r="T95">
+      <c r="V95">
         <v>1.1399999999999999</v>
       </c>
-      <c r="U95" t="s">
+      <c r="W95" t="s">
         <v>30</v>
       </c>
-      <c r="W95" t="s">
+      <c r="Y95" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7063,59 +7222,62 @@
       <c r="E96" t="s">
         <v>24</v>
       </c>
-      <c r="G96" t="s">
+      <c r="F96" t="s">
+        <v>193</v>
+      </c>
+      <c r="H96" t="s">
         <v>26</v>
       </c>
-      <c r="H96">
+      <c r="I96" t="s">
+        <v>207</v>
+      </c>
+      <c r="J96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
+      <c r="K96" t="s">
         <v>34</v>
       </c>
-      <c r="J96" t="s">
-        <v>27</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
+      <c r="M96" t="s">
         <v>39</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96" t="s">
         <v>29</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>76</v>
       </c>
-      <c r="N96" t="s">
-        <v>25</v>
-      </c>
-      <c r="O96" t="s">
-        <v>25</v>
-      </c>
-      <c r="P96">
+      <c r="P96" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>25</v>
+      </c>
+      <c r="R96">
         <v>2</v>
       </c>
-      <c r="Q96">
+      <c r="S96">
         <v>2.6</v>
       </c>
-      <c r="R96">
+      <c r="T96">
         <v>6.1</v>
       </c>
-      <c r="S96">
+      <c r="U96">
         <v>173</v>
       </c>
-      <c r="T96">
+      <c r="V96">
         <v>0.24</v>
       </c>
-      <c r="U96" t="s">
+      <c r="W96" t="s">
         <v>30</v>
       </c>
-      <c r="W96" t="s">
+      <c r="Y96" t="s">
         <v>31</v>
       </c>
-      <c r="X96" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7131,56 +7293,59 @@
       <c r="E97" t="s">
         <v>24</v>
       </c>
-      <c r="G97" t="s">
-        <v>110</v>
-      </c>
-      <c r="H97">
+      <c r="F97" t="s">
+        <v>194</v>
+      </c>
+      <c r="H97" t="s">
+        <v>109</v>
+      </c>
+      <c r="I97" t="s">
+        <v>207</v>
+      </c>
+      <c r="J97">
         <v>1</v>
-      </c>
-      <c r="I97" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" t="s">
-        <v>23</v>
       </c>
       <c r="K97" t="s">
         <v>23</v>
       </c>
       <c r="L97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" t="s">
         <v>43</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>45</v>
       </c>
-      <c r="O97" t="s">
-        <v>25</v>
-      </c>
-      <c r="P97">
+      <c r="Q97" t="s">
+        <v>25</v>
+      </c>
+      <c r="R97">
         <v>1</v>
       </c>
-      <c r="Q97">
+      <c r="S97">
         <v>0.4</v>
       </c>
-      <c r="R97">
+      <c r="T97">
         <v>0.2</v>
       </c>
-      <c r="S97">
+      <c r="U97">
         <v>305</v>
       </c>
-      <c r="T97">
+      <c r="V97">
         <v>0.1</v>
       </c>
-      <c r="U97" t="s">
+      <c r="W97" t="s">
         <v>36</v>
       </c>
-      <c r="W97" t="s">
+      <c r="Y97" t="s">
         <v>31</v>
       </c>
-      <c r="X97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7196,44 +7361,47 @@
       <c r="E98" t="s">
         <v>24</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>33</v>
       </c>
-      <c r="H98">
+      <c r="I98" t="s">
+        <v>208</v>
+      </c>
+      <c r="J98">
         <v>1</v>
       </c>
-      <c r="I98" t="s">
+      <c r="K98" t="s">
         <v>23</v>
       </c>
-      <c r="J98" t="s">
-        <v>27</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
+        <v>27</v>
+      </c>
+      <c r="M98" t="s">
         <v>28</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>43</v>
       </c>
-      <c r="Q98">
+      <c r="S98">
         <v>6</v>
       </c>
-      <c r="R98">
+      <c r="T98">
         <v>2.4</v>
       </c>
-      <c r="S98">
+      <c r="U98">
         <v>161</v>
       </c>
-      <c r="T98">
+      <c r="V98">
         <v>0.23</v>
       </c>
-      <c r="U98" t="s">
+      <c r="W98" t="s">
         <v>36</v>
       </c>
-      <c r="W98" t="s">
+      <c r="Y98" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7249,59 +7417,59 @@
       <c r="E99" t="s">
         <v>24</v>
       </c>
-      <c r="G99" t="s">
-        <v>83</v>
-      </c>
-      <c r="H99">
+      <c r="F99" t="s">
+        <v>196</v>
+      </c>
+      <c r="H99" t="s">
+        <v>82</v>
+      </c>
+      <c r="J99">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
-        <v>108</v>
-      </c>
-      <c r="J99" t="s">
-        <v>27</v>
-      </c>
       <c r="K99" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" t="s">
+        <v>27</v>
+      </c>
+      <c r="M99" t="s">
         <v>28</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99" t="s">
         <v>29</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>73</v>
       </c>
-      <c r="N99" t="s">
-        <v>25</v>
-      </c>
-      <c r="O99" t="s">
-        <v>25</v>
-      </c>
-      <c r="P99">
+      <c r="P99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>25</v>
+      </c>
+      <c r="R99">
         <v>1</v>
       </c>
-      <c r="Q99">
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="R99">
+      <c r="T99">
         <v>1.5</v>
       </c>
-      <c r="S99">
+      <c r="U99">
         <v>216</v>
       </c>
-      <c r="T99">
+      <c r="V99">
         <v>0.02</v>
       </c>
-      <c r="U99" t="s">
+      <c r="W99" t="s">
         <v>30</v>
       </c>
-      <c r="W99" t="s">
-        <v>196</v>
-      </c>
-      <c r="X99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7317,59 +7485,62 @@
       <c r="E100" t="s">
         <v>24</v>
       </c>
-      <c r="G100" t="s">
+      <c r="F100" t="s">
+        <v>198</v>
+      </c>
+      <c r="H100" t="s">
         <v>26</v>
       </c>
-      <c r="H100">
+      <c r="I100" t="s">
+        <v>207</v>
+      </c>
+      <c r="J100">
         <v>1</v>
       </c>
-      <c r="I100" t="s">
-        <v>198</v>
-      </c>
-      <c r="J100" t="s">
-        <v>27</v>
-      </c>
       <c r="K100" t="s">
+        <v>197</v>
+      </c>
+      <c r="L100" t="s">
+        <v>27</v>
+      </c>
+      <c r="M100" t="s">
         <v>28</v>
       </c>
-      <c r="L100" t="s">
+      <c r="N100" t="s">
         <v>29</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>78</v>
       </c>
-      <c r="N100" t="s">
-        <v>25</v>
-      </c>
-      <c r="O100" t="s">
-        <v>25</v>
-      </c>
-      <c r="P100">
+      <c r="P100" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>25</v>
+      </c>
+      <c r="R100">
         <v>3</v>
       </c>
-      <c r="Q100">
+      <c r="S100">
         <v>2.7</v>
       </c>
-      <c r="R100">
+      <c r="T100">
         <v>6.6</v>
       </c>
-      <c r="S100">
+      <c r="U100">
         <v>296</v>
       </c>
-      <c r="T100">
+      <c r="V100">
         <v>0.1</v>
       </c>
-      <c r="U100" t="s">
+      <c r="W100" t="s">
         <v>36</v>
       </c>
-      <c r="W100" t="s">
+      <c r="Y100" t="s">
         <v>31</v>
       </c>
-      <c r="X100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7385,56 +7556,59 @@
       <c r="E101" t="s">
         <v>24</v>
       </c>
-      <c r="G101" t="s">
-        <v>110</v>
-      </c>
-      <c r="H101">
+      <c r="F101" t="s">
+        <v>200</v>
+      </c>
+      <c r="H101" t="s">
+        <v>109</v>
+      </c>
+      <c r="I101" t="s">
+        <v>207</v>
+      </c>
+      <c r="J101">
         <v>1</v>
       </c>
-      <c r="I101" t="s">
-        <v>200</v>
-      </c>
-      <c r="J101" t="s">
-        <v>27</v>
-      </c>
       <c r="K101" t="s">
+        <v>199</v>
+      </c>
+      <c r="L101" t="s">
+        <v>27</v>
+      </c>
+      <c r="M101" t="s">
         <v>28</v>
       </c>
-      <c r="L101" t="s">
+      <c r="N101" t="s">
         <v>29</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>52</v>
       </c>
-      <c r="O101" t="s">
-        <v>25</v>
-      </c>
-      <c r="P101">
+      <c r="Q101" t="s">
+        <v>25</v>
+      </c>
+      <c r="R101">
         <v>1</v>
       </c>
-      <c r="Q101">
+      <c r="S101">
         <v>0</v>
       </c>
-      <c r="R101">
+      <c r="T101">
         <v>0.5</v>
       </c>
-      <c r="S101">
+      <c r="U101">
         <v>277</v>
       </c>
-      <c r="T101">
+      <c r="V101">
         <v>1.0900000000000001</v>
       </c>
-      <c r="U101" t="s">
+      <c r="W101" t="s">
         <v>30</v>
       </c>
-      <c r="W101" t="s">
+      <c r="Y101" t="s">
         <v>31</v>
       </c>
-      <c r="X101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7450,41 +7624,44 @@
       <c r="E102" t="s">
         <v>24</v>
       </c>
-      <c r="G102" t="s">
-        <v>110</v>
-      </c>
-      <c r="H102">
+      <c r="H102" t="s">
+        <v>109</v>
+      </c>
+      <c r="I102" t="s">
+        <v>207</v>
+      </c>
+      <c r="J102">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
-        <v>202</v>
-      </c>
-      <c r="J102" t="s">
-        <v>27</v>
-      </c>
       <c r="K102" t="s">
+        <v>201</v>
+      </c>
+      <c r="L102" t="s">
+        <v>27</v>
+      </c>
+      <c r="M102" t="s">
         <v>35</v>
       </c>
-      <c r="L102" t="s">
+      <c r="N102" t="s">
         <v>29</v>
       </c>
-      <c r="Q102">
+      <c r="S102">
         <v>3.1</v>
       </c>
-      <c r="R102">
+      <c r="T102">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S102">
+      <c r="U102">
         <v>194</v>
       </c>
-      <c r="T102">
+      <c r="V102">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U102" t="s">
+      <c r="W102" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7500,59 +7677,62 @@
       <c r="E103" t="s">
         <v>24</v>
       </c>
-      <c r="G103" t="s">
-        <v>110</v>
-      </c>
-      <c r="H103">
+      <c r="F103" t="s">
+        <v>202</v>
+      </c>
+      <c r="H103" t="s">
+        <v>109</v>
+      </c>
+      <c r="I103" t="s">
+        <v>207</v>
+      </c>
+      <c r="J103">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
-        <v>75</v>
-      </c>
-      <c r="J103" t="s">
-        <v>27</v>
-      </c>
       <c r="K103" t="s">
+        <v>74</v>
+      </c>
+      <c r="L103" t="s">
+        <v>27</v>
+      </c>
+      <c r="M103" t="s">
         <v>35</v>
       </c>
-      <c r="L103" t="s">
+      <c r="N103" t="s">
         <v>29</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>51</v>
       </c>
-      <c r="N103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O103" t="s">
-        <v>25</v>
-      </c>
-      <c r="P103">
+      <c r="P103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>25</v>
+      </c>
+      <c r="R103">
         <v>4</v>
       </c>
-      <c r="Q103">
+      <c r="S103">
         <v>2.6</v>
       </c>
-      <c r="R103">
+      <c r="T103">
         <v>80.8</v>
       </c>
-      <c r="S103">
+      <c r="U103">
         <v>569</v>
       </c>
-      <c r="T103">
+      <c r="V103">
         <v>3.64</v>
       </c>
-      <c r="U103" t="s">
+      <c r="W103" t="s">
         <v>36</v>
       </c>
-      <c r="W103" t="s">
+      <c r="Y103" t="s">
         <v>31</v>
       </c>
-      <c r="X103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7572,55 +7752,59 @@
         <v>204</v>
       </c>
       <c r="G104" t="s">
+        <v>203</v>
+      </c>
+      <c r="H104" t="s">
         <v>26</v>
       </c>
-      <c r="H104">
+      <c r="I104" t="s">
+        <v>207</v>
+      </c>
+      <c r="J104">
         <v>2</v>
       </c>
-      <c r="I104" t="s">
-        <v>108</v>
-      </c>
-      <c r="J104" t="s">
-        <v>27</v>
-      </c>
       <c r="K104" t="s">
+        <v>107</v>
+      </c>
+      <c r="L104" t="s">
+        <v>27</v>
+      </c>
+      <c r="M104" t="s">
         <v>39</v>
       </c>
-      <c r="L104" t="s">
+      <c r="N104" t="s">
         <v>29</v>
       </c>
-      <c r="N104" t="s">
-        <v>25</v>
-      </c>
-      <c r="O104" t="s">
-        <v>25</v>
-      </c>
-      <c r="P104">
+      <c r="P104" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>25</v>
+      </c>
+      <c r="R104">
         <v>2</v>
       </c>
-      <c r="Q104">
+      <c r="S104">
         <v>0.4</v>
       </c>
-      <c r="R104">
+      <c r="T104">
         <v>11</v>
       </c>
-      <c r="S104">
+      <c r="U104">
         <v>248</v>
       </c>
-      <c r="T104">
+      <c r="V104">
         <v>0.1</v>
       </c>
-      <c r="U104" t="s">
+      <c r="W104" t="s">
         <v>30</v>
       </c>
-      <c r="W104" t="s">
+      <c r="Y104" t="s">
         <v>31</v>
-      </c>
-      <c r="X104" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>